--- a/Empresas/Rubros-Subrubros_y_Act_Económica.xlsx
+++ b/Empresas/Rubros-Subrubros_y_Act_Económica.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94EE734-17FF-474C-B43C-67B9FABB63F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB8A1E-37D5-4F95-BC89-E0A956B22D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId5"/>
-    <sheet name="Hoja5" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja6" sheetId="7" r:id="rId7"/>
+    <sheet name="Contribuyentes" sheetId="8" r:id="rId2"/>
+    <sheet name="Término Giro" sheetId="9" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId7"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId8"/>
+    <sheet name="Hoja6" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$662</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId8"/>
+    <pivotCache cacheId="25" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9847" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10177" uniqueCount="2144">
   <si>
     <t>Rubro económico</t>
   </si>
@@ -6020,6 +6022,462 @@
   </si>
   <si>
     <t>Actividad origen</t>
+  </si>
+  <si>
+    <t>Tipo Origen</t>
+  </si>
+  <si>
+    <t>Subtipo Origen</t>
+  </si>
+  <si>
+    <t>idtipo</t>
+  </si>
+  <si>
+    <t>idsubtipo</t>
+  </si>
+  <si>
+    <t>Tipo de contribuyente</t>
+  </si>
+  <si>
+    <t>Subtipo de contribuyente</t>
+  </si>
+  <si>
+    <t>INSTITUCIONES FISCALES</t>
+  </si>
+  <si>
+    <t>MINISTERIOS</t>
+  </si>
+  <si>
+    <t>Instituciones Fiscales</t>
+  </si>
+  <si>
+    <t>Ministerios</t>
+  </si>
+  <si>
+    <t>ORG. ADMINISTRACION PUBLICA</t>
+  </si>
+  <si>
+    <t>Org. Administración Pública</t>
+  </si>
+  <si>
+    <t>ORG. EDUCACION SUPERIOR</t>
+  </si>
+  <si>
+    <t>Org. Educacion Superior</t>
+  </si>
+  <si>
+    <t>ORG. MINISTERIO DEFENSA</t>
+  </si>
+  <si>
+    <t>Org. Ministerio Defensa</t>
+  </si>
+  <si>
+    <t>ORG. MINISTERIO JUSTICIA</t>
+  </si>
+  <si>
+    <t>Org. Ministerio Justicia</t>
+  </si>
+  <si>
+    <t>ORG. MINISTERIO SALUD</t>
+  </si>
+  <si>
+    <t>01-06</t>
+  </si>
+  <si>
+    <t>Org. Ministerio Salud</t>
+  </si>
+  <si>
+    <t>ORGANISMO AUTONOMO DEL ESTADO</t>
+  </si>
+  <si>
+    <t>01-07</t>
+  </si>
+  <si>
+    <t>Organismo Autónomo del Estado</t>
+  </si>
+  <si>
+    <t>MUNICIPALIDADES</t>
+  </si>
+  <si>
+    <t>LICEO O COLEGIO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Municipalidades</t>
+  </si>
+  <si>
+    <t>Liceo o Colegio Municipal</t>
+  </si>
+  <si>
+    <t>MUNICIPALIDAD</t>
+  </si>
+  <si>
+    <t>Municipalidad</t>
+  </si>
+  <si>
+    <t>OTRO ORG. MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Otro Org. Municipal</t>
+  </si>
+  <si>
+    <t>NO CLASIFICADOS</t>
+  </si>
+  <si>
+    <t>NO CLASIFICADO</t>
+  </si>
+  <si>
+    <t>No Clasificados</t>
+  </si>
+  <si>
+    <t>No Clasificado</t>
+  </si>
+  <si>
+    <t>ORG. SIN FINES DE LUCRO</t>
+  </si>
+  <si>
+    <t>ASOC. GREMIAL</t>
+  </si>
+  <si>
+    <t>Org. Sin Fines De Lucro</t>
+  </si>
+  <si>
+    <t>Asoc. Gremial</t>
+  </si>
+  <si>
+    <t>CLUB DEPORTIVO</t>
+  </si>
+  <si>
+    <t>04-02</t>
+  </si>
+  <si>
+    <t>Club Deportivo</t>
+  </si>
+  <si>
+    <t>COOPERATIVA</t>
+  </si>
+  <si>
+    <t>04-03</t>
+  </si>
+  <si>
+    <t>Cooperativa</t>
+  </si>
+  <si>
+    <t>CORPORACION</t>
+  </si>
+  <si>
+    <t>04-04</t>
+  </si>
+  <si>
+    <t>Corporación</t>
+  </si>
+  <si>
+    <t>CORPORACION EDUCACIONAL LEY 20845</t>
+  </si>
+  <si>
+    <t>04-05</t>
+  </si>
+  <si>
+    <t>Corporación Educacional Ley 20845</t>
+  </si>
+  <si>
+    <t>ENTIDAD INDIVIDUAL EDUCACIONAL LEY 20845</t>
+  </si>
+  <si>
+    <t>04-06</t>
+  </si>
+  <si>
+    <t>Entidad Individual Educacional Ley 20845</t>
+  </si>
+  <si>
+    <t>FUNDACION</t>
+  </si>
+  <si>
+    <t>04-07</t>
+  </si>
+  <si>
+    <t>Fundación</t>
+  </si>
+  <si>
+    <t>JUNTA DE VECINOS, ORG. COMUNITARIA</t>
+  </si>
+  <si>
+    <t>04-08</t>
+  </si>
+  <si>
+    <t>Junta de Vecinos, Org. Comunitaria</t>
+  </si>
+  <si>
+    <t>OTRA OSFL</t>
+  </si>
+  <si>
+    <t>04-09</t>
+  </si>
+  <si>
+    <t>Otra OSFL</t>
+  </si>
+  <si>
+    <t>SINDICATO</t>
+  </si>
+  <si>
+    <t>04-10</t>
+  </si>
+  <si>
+    <t>Sindicato</t>
+  </si>
+  <si>
+    <t>ORGANISMOS INTERNACIONALES</t>
+  </si>
+  <si>
+    <t>EMBAJADAS</t>
+  </si>
+  <si>
+    <t>Organismos Internacionales</t>
+  </si>
+  <si>
+    <t>Embajadas</t>
+  </si>
+  <si>
+    <t>05-02</t>
+  </si>
+  <si>
+    <t>PERSONA JURIDICA COMERCIAL</t>
+  </si>
+  <si>
+    <t>ADMINISTRADORA FONDOS DE PENSIONES</t>
+  </si>
+  <si>
+    <t>Persona Jurídica Comercial</t>
+  </si>
+  <si>
+    <t>Administradora Fondos de Pensiones</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>COMPANIAS DE SEGURO</t>
+  </si>
+  <si>
+    <t>Compañías de Seguro</t>
+  </si>
+  <si>
+    <t>EMPR. INDIVIDUAL RESP. LTDA.</t>
+  </si>
+  <si>
+    <t>Empresa Individual Resp. Ltda.</t>
+  </si>
+  <si>
+    <t>ENCOMANDITA SIMPLE</t>
+  </si>
+  <si>
+    <t>Encomandita Simple</t>
+  </si>
+  <si>
+    <t>ENCOMANDITAS POR ACCIONES</t>
+  </si>
+  <si>
+    <t>Encomanditas por Acciones</t>
+  </si>
+  <si>
+    <t>FONDO DE INVERSION PRIVADO</t>
+  </si>
+  <si>
+    <t>Fondo de Inversión Privado</t>
+  </si>
+  <si>
+    <t>FONDO DE INVERSION PUBLICO</t>
+  </si>
+  <si>
+    <t>Fondo de Inversión Público</t>
+  </si>
+  <si>
+    <t>SOC LEGAL MINERA</t>
+  </si>
+  <si>
+    <t>Soc Legal Minera</t>
+  </si>
+  <si>
+    <t>SOC. ANONIMA DEPORTIVA</t>
+  </si>
+  <si>
+    <t>Soc. Anónima Deportiva</t>
+  </si>
+  <si>
+    <t>SOC. PLATAFORMA ART 41 D</t>
+  </si>
+  <si>
+    <t>Soc. Plataforma Art 41 D</t>
+  </si>
+  <si>
+    <t>SOC. RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>Soc. Responsabilidad Limitada</t>
+  </si>
+  <si>
+    <t>SOCIEDA COLECTIVA CIVIL</t>
+  </si>
+  <si>
+    <t>Sociedad Colectiva Civil</t>
+  </si>
+  <si>
+    <t>SOCIEDAD ANONIMA CON GARANTIA RECIPROCA</t>
+  </si>
+  <si>
+    <t>Sociedad Anónima con Garantía Reciproca</t>
+  </si>
+  <si>
+    <t>SOCIEDAD COLECTIVA COMERCIAL</t>
+  </si>
+  <si>
+    <t>Sociedad Colectiva Comercial</t>
+  </si>
+  <si>
+    <t>SOCIEDAD POR ACCIONES</t>
+  </si>
+  <si>
+    <t>Sociedad por Acciones</t>
+  </si>
+  <si>
+    <t>SOCIEDADES ANONIMAS ABIERTAS</t>
+  </si>
+  <si>
+    <t>Sociedades Anónimas Abiertas</t>
+  </si>
+  <si>
+    <t>SOCIEDADES ANONIMAS CERRADAS</t>
+  </si>
+  <si>
+    <t>Sociedades Anónimas Cerradas</t>
+  </si>
+  <si>
+    <t>SIN PER. JURIDICA</t>
+  </si>
+  <si>
+    <t>COMUNIDAD DISOLUCION SOC. CONYUGAL</t>
+  </si>
+  <si>
+    <t>Sin Personalidad Jurídica</t>
+  </si>
+  <si>
+    <t>Comunidad Disolución Soc. Conyugal</t>
+  </si>
+  <si>
+    <t>COMUNIDADES DE EDIFICIOS</t>
+  </si>
+  <si>
+    <t>Comunidades de Edificios</t>
+  </si>
+  <si>
+    <t>OTRAS ORGANIZACIONES SIN P. JURIDICA</t>
+  </si>
+  <si>
+    <t>Otras Organizaciones sin P. Jurídica</t>
+  </si>
+  <si>
+    <t>SOCIEDADES DE HECHO</t>
+  </si>
+  <si>
+    <t>Sociedades de Hecho</t>
+  </si>
+  <si>
+    <t>SUCESIONES O COMUNIDADES HERED</t>
+  </si>
+  <si>
+    <t>Sucesiones o Comunidades Hered</t>
+  </si>
+  <si>
+    <t>SOCIEDADES EXTRANJERAS</t>
+  </si>
+  <si>
+    <t>AGENCIA</t>
+  </si>
+  <si>
+    <t>Sociedades Extranjeras</t>
+  </si>
+  <si>
+    <t>Agencia</t>
+  </si>
+  <si>
+    <t>CODIGO INVALIDO, NO UTILIZAR</t>
+  </si>
+  <si>
+    <t>Código Inválido, No Utilizar</t>
+  </si>
+  <si>
+    <t>ENTIDAD SIN RESIDENCIA</t>
+  </si>
+  <si>
+    <t>08-03</t>
+  </si>
+  <si>
+    <t>Entidad sin Residencia</t>
+  </si>
+  <si>
+    <t>OTRO ESTABLECIMIENTO PERMANENTE</t>
+  </si>
+  <si>
+    <t>08-04</t>
+  </si>
+  <si>
+    <t>Otro Establecimiento Permanente</t>
+  </si>
+  <si>
+    <t>PRESIDENCIA REGIONAL</t>
+  </si>
+  <si>
+    <t>08-05</t>
+  </si>
+  <si>
+    <t>Residencia Regional</t>
+  </si>
+  <si>
+    <t>SOCIEDAD EXTRANJERA RES 5412/2000</t>
+  </si>
+  <si>
+    <t>08-06</t>
+  </si>
+  <si>
+    <t>Sociedad Extranjera Res 5412/2000</t>
+  </si>
+  <si>
+    <t>-No Value-</t>
+  </si>
+  <si>
+    <t>TERMINO DE GIRO</t>
+  </si>
+  <si>
+    <t>TERMINO DE GIRO PERSONA JURIDICA</t>
+  </si>
+  <si>
+    <t>TERMINO DE GIRO PERSONA NATURAL</t>
+  </si>
+  <si>
+    <t>TERMINO GIRO SIMPLIFICADO RES. 41/2002</t>
+  </si>
+  <si>
+    <t>Tipo término de giro</t>
+  </si>
+  <si>
+    <t>Término de Giro</t>
+  </si>
+  <si>
+    <t>Término de Giro Persona Jurídica</t>
+  </si>
+  <si>
+    <t>Término de Giro Persona Natural</t>
+  </si>
+  <si>
+    <t>Término de Giro Simplificado RES.41/2002</t>
+  </si>
+  <si>
+    <t>Tipo término de giro origen</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
   </si>
 </sst>
 </file>
@@ -15024,7 +15482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88344608-ED04-41B0-9F7C-7C9CBEC1DD63}" name="TablaDinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88344608-ED04-41B0-9F7C-7C9CBEC1DD63}" name="TablaDinámica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B664" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -19536,7 +19994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{260AE24C-4227-4073-B70F-511D85DFB5F1}" name="TablaDinámica2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{260AE24C-4227-4073-B70F-511D85DFB5F1}" name="TablaDinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B234" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -20590,7 +21048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D97E43-DC83-4949-9FF9-716A8CF897DD}" name="TablaDinámica3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D97E43-DC83-4949-9FF9-716A8CF897DD}" name="TablaDinámica3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B664" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24080,7 +24538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45283,6 +45741,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99FCBC1-94FE-42C7-963A-DD0927D30D2B}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD2798A-4F2D-451B-AAB0-FA1A1BA8D853}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6037C-054C-414D-8F48-1DD4698B3613}">
   <dimension ref="A3:B664"/>
   <sheetViews>
@@ -50597,7 +52204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B42E916-242F-4ADE-85FE-D11B57063336}">
   <dimension ref="B3:C664"/>
   <sheetViews>
@@ -55913,7 +57520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5638E9-A943-4AC7-8667-9578179DA306}">
   <dimension ref="B3:C234"/>
   <sheetViews>
@@ -57788,7 +59395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC7145-0197-4F18-A0F1-F7DFC064ED5D}">
   <dimension ref="B3:D25"/>
   <sheetViews>
@@ -58058,7 +59665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA95989D-45EA-4891-AD3A-685D4FDAA393}">
   <dimension ref="A3:D234"/>
   <sheetViews>
@@ -61552,7 +63159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE822A1-A302-43C2-9297-B5DAEB731DD2}">
   <dimension ref="A3:E664"/>
   <sheetViews>
